--- a/visao-2020/Eixo9_MunicipioOndeTrabalha.xlsx
+++ b/visao-2020/Eixo9_MunicipioOndeTrabalha.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
